--- a/medicine/Premiers secours et secourisme/Pompier_en_Vallée_d'Aoste/Pompier_en_Vallée_d'Aoste.xlsx
+++ b/medicine/Premiers secours et secourisme/Pompier_en_Vallée_d'Aoste/Pompier_en_Vallée_d'Aoste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pompier_en_Vall%C3%A9e_d%27Aoste</t>
+          <t>Pompier_en_Vallée_d'Aoste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Corps valdôtain des sapeurs-pompiers est le corps régional des sapeurs-pompiers de la région autonome Vallée d'Aoste, en Italie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pompier_en_Vall%C3%A9e_d%27Aoste</t>
+          <t>Pompier_en_Vallée_d'Aoste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps valdôtain des sapeurs-pompiers remplace le corps national italien des sapeurs-pompiers le 1er janvier 2000 en vertu de la loi régionale no 7/1999[1]. À la suite de ce changement, le personnel dépend de la région autonome Vallée d'Aoste, et non plus du Ministère de l'Intérieur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps valdôtain des sapeurs-pompiers remplace le corps national italien des sapeurs-pompiers le 1er janvier 2000 en vertu de la loi régionale no 7/1999. À la suite de ce changement, le personnel dépend de la région autonome Vallée d'Aoste, et non plus du Ministère de l'Intérieur.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pompier_en_Vall%C3%A9e_d%27Aoste</t>
+          <t>Pompier_en_Vallée_d'Aoste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps valdôtain des sapeurs-pompiers possède une organisation autonome au niveau régional.
 Pour ce qui concerne les interventions dans le domaine de la protection civile, il reçoit ses directives directement du département de la coordination régionale.
@@ -552,7 +568,7 @@
 le commandement régional, à la caserne « Erik Mortara », située à la localité Croix-Noire, à la limite entre les communes d'Aoste et de Saint-Christophe ;
 le détachement aéroportuaire, situé à l'aéroport de la Vallée d'Aoste ;
 le détachement de Courmayeur, dans l'éventualité d'intervenir dans le tunnel du Mont-Blanc, en particulier à la suite de l'incendie de 1999.
-À Saint-Christophe se situe la structure de formation « Sorreley-Meysattaz »[2].
+À Saint-Christophe se situe la structure de formation « Sorreley-Meysattaz ».
 </t>
         </is>
       </c>
